--- a/PCAcombined_predicted_factors_matrix_5.xlsx
+++ b/PCAcombined_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.1617740899292179</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2323173682195192</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1388916672597951</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04625715128389644</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.03357156975123604</v>
+        <v>0.2323439427980957</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.399494842039963</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3634992373847629</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2939668641854126</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2316035373413833</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1817255009160421</v>
+        <v>0.3635408177414964</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>1.029601240417395</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.696699688960625</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3647165086025672</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.2048761404314164</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.1216551694321739</v>
+        <v>-0.6967793838227411</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5920492917088883</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3747007812948613</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2112487085264047</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1105074383058537</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05125755551347162</v>
+        <v>0.3747436429863141</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>-0.4745475968823199</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2245874958969909</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.01513824770626193</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01505533666968225</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.01406892120192866</v>
+        <v>-0.2246131862622962</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_5.xlsx
+++ b/PCAcombined_predicted_factors_matrix_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.2323439427980957</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.2317867244723925</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1992381513631844</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.3635408177414964</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.3167849277307366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2678950325605665</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>-0.6967793838227411</v>
       </c>
+      <c r="C4" t="n">
+        <v>-0.4687652664884352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.3120192309152472</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.3747436429863141</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.2455489708700104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1611890697101191</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -479,6 +509,12 @@
       </c>
       <c r="B6" t="n">
         <v>-0.2246131862622962</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1351667959652841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.08906738493521188</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_factors_matrix_5.xlsx
+++ b/PCAcombined_predicted_factors_matrix_5.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\04. Models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF5DC8-9492-44B0-9B45-86081A8CD513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-49890" yWindow="-3675" windowWidth="29385" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +52,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,101 +376,872 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.1617740899292179</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.16177408992921791</v>
+      </c>
+      <c r="B2">
         <v>0.2323439427980957</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.2317867244723925</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1992381513631844</v>
+      <c r="C2">
+        <v>0.23280768560577761</v>
+      </c>
+      <c r="D2">
+        <v>0.20266458948926891</v>
+      </c>
+      <c r="E2">
+        <v>0.1583801849461445</v>
+      </c>
+      <c r="F2">
+        <v>0.10895136426576971</v>
+      </c>
+      <c r="G2">
+        <v>5.9277810295118437E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.1869710221254621E-2</v>
+      </c>
+      <c r="I2">
+        <v>-3.2161244351135633E-2</v>
+      </c>
+      <c r="J2">
+        <v>-7.2499041362585462E-2</v>
+      </c>
+      <c r="K2">
+        <v>-0.1092551876992242</v>
+      </c>
+      <c r="L2">
+        <v>-0.1427475310581264</v>
+      </c>
+      <c r="M2">
+        <v>-0.17337143272657929</v>
+      </c>
+      <c r="N2">
+        <v>-0.20152833050743299</v>
+      </c>
+      <c r="O2">
+        <v>-0.22758927451813701</v>
+      </c>
+      <c r="P2">
+        <v>-0.25187917751259192</v>
+      </c>
+      <c r="Q2">
+        <v>-0.27467283384647873</v>
+      </c>
+      <c r="R2">
+        <v>-0.29619719830953062</v>
+      </c>
+      <c r="S2">
+        <v>-0.31663661722921299</v>
+      </c>
+      <c r="T2">
+        <v>-0.33613909520996221</v>
+      </c>
+      <c r="U2">
+        <v>-0.35482254492883791</v>
+      </c>
+      <c r="V2">
+        <v>-0.37278049226610982</v>
+      </c>
+      <c r="W2">
+        <v>-0.3900870182509531</v>
+      </c>
+      <c r="X2">
+        <v>-0.40680089350997289</v>
+      </c>
+      <c r="Y2">
+        <v>-0.42296895228057863</v>
+      </c>
+      <c r="Z2">
+        <v>-0.43862879493654933</v>
+      </c>
+      <c r="AA2">
+        <v>-0.45381092138462947</v>
+      </c>
+      <c r="AB2">
+        <v>-0.46854039563973071</v>
+      </c>
+      <c r="AC2">
+        <v>-0.48283813223977939</v>
+      </c>
+      <c r="AD2">
+        <v>-0.49672188252696042</v>
+      </c>
+      <c r="AE2">
+        <v>-0.5102069857715712</v>
+      </c>
+      <c r="AF2">
+        <v>-0.5233069379762173</v>
+      </c>
+      <c r="AG2">
+        <v>-0.53603382056072013</v>
+      </c>
+      <c r="AH2">
+        <v>-0.54839862215874458</v>
+      </c>
+      <c r="AI2">
+        <v>-0.56041147939633384</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.57208185660237088</v>
+      </c>
+      <c r="AK2">
+        <v>-0.58341867971307804</v>
+      </c>
+      <c r="AL2">
+        <v>-0.59443043596651246</v>
+      </c>
+      <c r="AM2">
+        <v>-0.60489577388269555</v>
+      </c>
+      <c r="AN2">
+        <v>-0.61501434301356783</v>
+      </c>
+      <c r="AO2">
+        <v>-0.62467400409969653</v>
+      </c>
+      <c r="AP2">
+        <v>-0.63400069787984392</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.64301415606180168</v>
+      </c>
+      <c r="AR2">
+        <v>-0.65173025320687705</v>
+      </c>
+      <c r="AS2">
+        <v>-0.66016211678547321</v>
+      </c>
+      <c r="AT2">
+        <v>-0.6683208817981019</v>
+      </c>
+      <c r="AU2">
+        <v>-0.67621622308555174</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.399494842039963</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3635408177414964</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3167849277307366</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2678950325605665</v>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.39949484203996299</v>
+      </c>
+      <c r="B3">
+        <v>0.36354081774149638</v>
+      </c>
+      <c r="C3">
+        <v>0.31662376678647741</v>
+      </c>
+      <c r="D3">
+        <v>0.26737530739339388</v>
+      </c>
+      <c r="E3">
+        <v>0.22204884153850571</v>
+      </c>
+      <c r="F3">
+        <v>0.18302102019261229</v>
+      </c>
+      <c r="G3">
+        <v>0.1508334029717944</v>
+      </c>
+      <c r="H3">
+        <v>0.12513800559176061</v>
+      </c>
+      <c r="I3">
+        <v>0.1051898842490242</v>
+      </c>
+      <c r="J3">
+        <v>9.0113600085219903E-2</v>
+      </c>
+      <c r="K3">
+        <v>7.9044393445234382E-2</v>
+      </c>
+      <c r="L3">
+        <v>7.119725332024919E-2</v>
+      </c>
+      <c r="M3">
+        <v>6.5894610556874192E-2</v>
+      </c>
+      <c r="N3">
+        <v>6.2571049848766255E-2</v>
+      </c>
+      <c r="O3">
+        <v>6.0766096649098773E-2</v>
+      </c>
+      <c r="P3">
+        <v>6.0111621250898077E-2</v>
+      </c>
+      <c r="Q3">
+        <v>6.0317605561176407E-2</v>
+      </c>
+      <c r="R3">
+        <v>6.115829855089043E-2</v>
+      </c>
+      <c r="S3">
+        <v>6.2459748794134518E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.408909527039422E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.5945658752433869E-2</v>
+      </c>
+      <c r="V3">
+        <v>6.79537014980586E-2</v>
+      </c>
+      <c r="W3">
+        <v>7.0056646143538431E-2</v>
+      </c>
+      <c r="X3">
+        <v>7.2212523785936775E-2</v>
+      </c>
+      <c r="Y3">
+        <v>7.4390430331807089E-2</v>
+      </c>
+      <c r="Z3">
+        <v>7.6567793640085258E-2</v>
+      </c>
+      <c r="AA3">
+        <v>7.8728282677645742E-2</v>
+      </c>
+      <c r="AB3">
+        <v>8.0860218787571658E-2</v>
+      </c>
+      <c r="AC3">
+        <v>8.2955375679945029E-2</v>
+      </c>
+      <c r="AD3">
+        <v>8.5008077803261403E-2</v>
+      </c>
+      <c r="AE3">
+        <v>8.7014526088218205E-2</v>
+      </c>
+      <c r="AF3">
+        <v>8.8972295864740231E-2</v>
+      </c>
+      <c r="AG3">
+        <v>9.0879964434838173E-2</v>
+      </c>
+      <c r="AH3">
+        <v>9.2736835805937168E-2</v>
+      </c>
+      <c r="AI3">
+        <v>9.4542737914766348E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>9.6297873721802763E-2</v>
+      </c>
+      <c r="AK3">
+        <v>9.8002712194792271E-2</v>
+      </c>
+      <c r="AL3">
+        <v>9.9657908730872366E-2</v>
+      </c>
+      <c r="AM3">
+        <v>0.101095956061106</v>
+      </c>
+      <c r="AN3">
+        <v>0.10251728536710671</v>
+      </c>
+      <c r="AO3">
+        <v>0.1038178679449923</v>
+      </c>
+      <c r="AP3">
+        <v>0.1051064079404067</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1063741797906919</v>
+      </c>
+      <c r="AR3">
+        <v>0.1076153352771886</v>
+      </c>
+      <c r="AS3">
+        <v>0.10882603270688609</v>
+      </c>
+      <c r="AT3">
+        <v>0.1100038420874101</v>
+      </c>
+      <c r="AU3">
+        <v>0.1111473271591789</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1.029601240417395</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.6967793838227411</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4687652664884352</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.3120192309152472</v>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1.0296012404173951</v>
+      </c>
+      <c r="B4">
+        <v>-0.69677938382274107</v>
+      </c>
+      <c r="C4">
+        <v>-0.46857182186932722</v>
+      </c>
+      <c r="D4">
+        <v>-0.31144082291449082</v>
+      </c>
+      <c r="E4">
+        <v>-0.2058142539067494</v>
+      </c>
+      <c r="F4">
+        <v>-0.1353301292487655</v>
+      </c>
+      <c r="G4">
+        <v>-8.8400659598149661E-2</v>
+      </c>
+      <c r="H4">
+        <v>-5.7180935830399342E-2</v>
+      </c>
+      <c r="I4">
+        <v>-3.6430644368894587E-2</v>
+      </c>
+      <c r="J4">
+        <v>-2.2660202837946411E-2</v>
+      </c>
+      <c r="K4">
+        <v>-1.354516635623264E-2</v>
+      </c>
+      <c r="L4">
+        <v>-7.535308604871652E-3</v>
+      </c>
+      <c r="M4">
+        <v>-3.5955176254536172E-3</v>
+      </c>
+      <c r="N4">
+        <v>-1.0340861988835091E-3</v>
+      </c>
+      <c r="O4">
+        <v>6.1133075527278571E-4</v>
+      </c>
+      <c r="P4">
+        <v>1.6496655642583239E-3</v>
+      </c>
+      <c r="Q4">
+        <v>2.2871466638807749E-3</v>
+      </c>
+      <c r="R4">
+        <v>2.6612252833688702E-3</v>
+      </c>
+      <c r="S4">
+        <v>2.8633080817964578E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.9540029952082121E-3</v>
+      </c>
+      <c r="U4">
+        <v>2.973347242799497E-3</v>
+      </c>
+      <c r="V4">
+        <v>2.94766721726806E-3</v>
+      </c>
+      <c r="W4">
+        <v>2.894175573870587E-3</v>
+      </c>
+      <c r="X4">
+        <v>2.8240476197510761E-3</v>
+      </c>
+      <c r="Y4">
+        <v>2.7444759778116369E-3</v>
+      </c>
+      <c r="Z4">
+        <v>2.6600393200831699E-3</v>
+      </c>
+      <c r="AA4">
+        <v>2.573611221447314E-3</v>
+      </c>
+      <c r="AB4">
+        <v>2.4869612713399459E-3</v>
+      </c>
+      <c r="AC4">
+        <v>2.401150757766821E-3</v>
+      </c>
+      <c r="AD4">
+        <v>2.3167916426534252E-3</v>
+      </c>
+      <c r="AE4">
+        <v>2.2342148997609701E-3</v>
+      </c>
+      <c r="AF4">
+        <v>2.1535790299448869E-3</v>
+      </c>
+      <c r="AG4">
+        <v>2.0749393038489439E-3</v>
+      </c>
+      <c r="AH4">
+        <v>1.998291388007428E-3</v>
+      </c>
+      <c r="AI4">
+        <v>1.9235983905054039E-3</v>
+      </c>
+      <c r="AJ4">
+        <v>1.8508072750571081E-3</v>
+      </c>
+      <c r="AK4">
+        <v>1.779858536471499E-3</v>
+      </c>
+      <c r="AL4">
+        <v>1.7106916666201071E-3</v>
+      </c>
+      <c r="AM4">
+        <v>1.633050915504112E-3</v>
+      </c>
+      <c r="AN4">
+        <v>1.558667129925871E-3</v>
+      </c>
+      <c r="AO4">
+        <v>1.4824466668212891E-3</v>
+      </c>
+      <c r="AP4">
+        <v>1.4103858840677471E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>1.342399743654702E-3</v>
+      </c>
+      <c r="AR4">
+        <v>1.2780614300429371E-3</v>
+      </c>
+      <c r="AS4">
+        <v>1.216906785740585E-3</v>
+      </c>
+      <c r="AT4">
+        <v>1.1585171870668359E-3</v>
+      </c>
+      <c r="AU4">
+        <v>1.1025394204001689E-3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.5920492917088883</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3747436429863141</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2455489708700104</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1611890697101191</v>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.59204929170888831</v>
+      </c>
+      <c r="B5">
+        <v>0.37474364298631407</v>
+      </c>
+      <c r="C5">
+        <v>0.24549814064723471</v>
+      </c>
+      <c r="D5">
+        <v>0.16102818999581911</v>
+      </c>
+      <c r="E5">
+        <v>0.10473382147654289</v>
+      </c>
+      <c r="F5">
+        <v>6.7065686091719603E-2</v>
+      </c>
+      <c r="G5">
+        <v>4.1949819429514527E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.5312661677438342E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.4371230109285571E-2</v>
+      </c>
+      <c r="J5">
+        <v>7.2212746678281059E-3</v>
+      </c>
+      <c r="K5">
+        <v>2.567292468309956E-3</v>
+      </c>
+      <c r="L5">
+        <v>-4.6429675853390837E-4</v>
+      </c>
+      <c r="M5">
+        <v>-2.4564627999046611E-3</v>
+      </c>
+      <c r="N5">
+        <v>-3.7937640383787301E-3</v>
+      </c>
+      <c r="O5">
+        <v>-4.7266185760242944E-3</v>
+      </c>
+      <c r="P5">
+        <v>-5.4156971215382687E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-5.9622896749915114E-3</v>
+      </c>
+      <c r="R5">
+        <v>-6.4288741736047662E-3</v>
+      </c>
+      <c r="S5">
+        <v>-6.8529090483689164E-3</v>
+      </c>
+      <c r="T5">
+        <v>-7.2559850059467834E-3</v>
+      </c>
+      <c r="U5">
+        <v>-7.6498286236033894E-3</v>
+      </c>
+      <c r="V5">
+        <v>-8.040190651691443E-3</v>
+      </c>
+      <c r="W5">
+        <v>-8.4293270833149525E-3</v>
+      </c>
+      <c r="X5">
+        <v>-8.8175539676673149E-3</v>
+      </c>
+      <c r="Y5">
+        <v>-9.2041997342321089E-3</v>
+      </c>
+      <c r="Z5">
+        <v>-9.5881709394743959E-3</v>
+      </c>
+      <c r="AA5">
+        <v>-9.9682739916135479E-3</v>
+      </c>
+      <c r="AB5">
+        <v>-1.0343385944839601E-2</v>
+      </c>
+      <c r="AC5">
+        <v>-1.0712534393915851E-2</v>
+      </c>
+      <c r="AD5">
+        <v>-1.107492460940864E-2</v>
+      </c>
+      <c r="AE5">
+        <v>-1.142993770717351E-2</v>
+      </c>
+      <c r="AF5">
+        <v>-1.1777114351895089E-2</v>
+      </c>
+      <c r="AG5">
+        <v>-1.2116132555242061E-2</v>
+      </c>
+      <c r="AH5">
+        <v>-1.2446784395752119E-2</v>
+      </c>
+      <c r="AI5">
+        <v>-1.276895418909302E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.3082599260574319E-2</v>
+      </c>
+      <c r="AK5">
+        <v>-1.3387733678526579E-2</v>
+      </c>
+      <c r="AL5">
+        <v>-1.368441487624826E-2</v>
+      </c>
+      <c r="AM5">
+        <v>-1.3915134835407491E-2</v>
+      </c>
+      <c r="AN5">
+        <v>-1.415031763490757E-2</v>
+      </c>
+      <c r="AO5">
+        <v>-1.435365532795535E-2</v>
+      </c>
+      <c r="AP5">
+        <v>-1.456309822867892E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.477483938904617E-2</v>
+      </c>
+      <c r="AR5">
+        <v>-1.4986216719328061E-2</v>
+      </c>
+      <c r="AS5">
+        <v>-1.519538271669214E-2</v>
+      </c>
+      <c r="AT5">
+        <v>-1.540106744177824E-2</v>
+      </c>
+      <c r="AU5">
+        <v>-1.5602410713226539E-2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>-0.4745475968823199</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-0.2246131862622962</v>
       </c>
-      <c r="C6" t="n">
-        <v>-0.1351667959652841</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.08906738493521188</v>
+      <c r="C6">
+        <v>-0.13514717031081441</v>
+      </c>
+      <c r="D6">
+        <v>-8.9005288719298484E-2</v>
+      </c>
+      <c r="E6">
+        <v>-6.0518273246003923E-2</v>
+      </c>
+      <c r="F6">
+        <v>-4.1501502449035867E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.8417970658009821E-2</v>
+      </c>
+      <c r="H6">
+        <v>-1.9310294745447189E-2</v>
+      </c>
+      <c r="I6">
+        <v>-1.294015941418495E-2</v>
+      </c>
+      <c r="J6">
+        <v>-8.4771695160849661E-3</v>
+      </c>
+      <c r="K6">
+        <v>-5.3505839988430073E-3</v>
+      </c>
+      <c r="L6">
+        <v>-3.163575075339839E-3</v>
+      </c>
+      <c r="M6">
+        <v>-1.6384832447817509E-3</v>
+      </c>
+      <c r="N6">
+        <v>-5.8025448666355547E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.485084294859786E-4</v>
+      </c>
+      <c r="P6">
+        <v>6.447718891403071E-4</v>
+      </c>
+      <c r="Q6">
+        <v>9.7705569555231182E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.1938158829401749E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.3293322243541699E-3</v>
+      </c>
+      <c r="T6">
+        <v>1.407855968660909E-3</v>
+      </c>
+      <c r="U6">
+        <v>1.446538662623534E-3</v>
+      </c>
+      <c r="V6">
+        <v>1.4575037276716241E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.4493133776254329E-3</v>
+      </c>
+      <c r="X6">
+        <v>1.4280080972729539E-3</v>
+      </c>
+      <c r="Y6">
+        <v>1.3978434780427551E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.361812539763307E-3</v>
+      </c>
+      <c r="AA6">
+        <v>1.3220159059712229E-3</v>
+      </c>
+      <c r="AB6">
+        <v>1.2799240365218489E-3</v>
+      </c>
+      <c r="AC6">
+        <v>1.2365628793678991E-3</v>
+      </c>
+      <c r="AD6">
+        <v>1.19264520549187E-3</v>
+      </c>
+      <c r="AE6">
+        <v>1.1486634361279331E-3</v>
+      </c>
+      <c r="AF6">
+        <v>1.1049551874168411E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.0617495004618821E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.0191994099182681E-3</v>
+      </c>
+      <c r="AI6">
+        <v>9.7740485928989019E-4</v>
+      </c>
+      <c r="AJ6">
+        <v>9.3642880252166913E-4</v>
+      </c>
+      <c r="AK6">
+        <v>8.9630850178976258E-4</v>
+      </c>
+      <c r="AL6">
+        <v>8.5706344265949297E-4</v>
+      </c>
+      <c r="AM6">
+        <v>8.2264496595614686E-4</v>
+      </c>
+      <c r="AN6">
+        <v>7.8986279330663014E-4</v>
+      </c>
+      <c r="AO6">
+        <v>7.5956242783044108E-4</v>
+      </c>
+      <c r="AP6">
+        <v>7.2968829555520535E-4</v>
+      </c>
+      <c r="AQ6">
+        <v>6.9961180952545919E-4</v>
+      </c>
+      <c r="AR6">
+        <v>6.6950769863197927E-4</v>
+      </c>
+      <c r="AS6">
+        <v>6.3961108294291881E-4</v>
+      </c>
+      <c r="AT6">
+        <v>6.1009765646938947E-4</v>
+      </c>
+      <c r="AU6">
+        <v>5.8108305610820275E-4</v>
       </c>
     </row>
   </sheetData>
